--- a/data/input/employee_absence_data_9.xlsx
+++ b/data/input/employee_absence_data_9.xlsx
@@ -464,74 +464,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35083</v>
+        <v>6848</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juliana Pacheco</t>
+          <t>Sr. Otávio Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45095</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>4331.34</v>
+        <v>5206.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36923</v>
+        <v>39037</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cauê Gonçalves</t>
+          <t>Paulo Teixeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45095</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>5335.59</v>
+        <v>3563.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71290</v>
+        <v>24888</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Pedro Câmara</t>
+          <t>Isaac Pastor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,216 +540,216 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45099</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>8498.16</v>
+        <v>3990.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3069</v>
+        <v>55087</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexandre Cavalcante</t>
+          <t>Maria Sales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45093</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>5757.26</v>
+        <v>7950.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17168</v>
+        <v>73715</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Cecília Fogaça</t>
+          <t>Dr. Arthur Ferreira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45088</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>10974.36</v>
+        <v>4569.07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2317</v>
+        <v>78660</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Luísa Moura</t>
+          <t>Dr. Gustavo Henrique Cavalcante</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45095</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>9608.309999999999</v>
+        <v>5460.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22549</v>
+        <v>46082</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luara Jesus</t>
+          <t>Olívia Carvalho</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>3560.13</v>
+        <v>6326.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13657</v>
+        <v>51293</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Leandro Souza</t>
+          <t>Yan Teixeira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>9495.93</v>
+        <v>3975.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>59947</v>
+        <v>74886</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Antonella Moura</t>
+          <t>Hadassa Sales</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45101</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>8550.440000000001</v>
+        <v>4216.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88188</v>
+        <v>15649</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Lucas Costa</t>
+          <t>Esther Costela</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45103</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>8842.309999999999</v>
+        <v>3923.09</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_9.xlsx
+++ b/data/input/employee_absence_data_9.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6848</v>
+        <v>25654</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Otávio Castro</t>
+          <t>Alexia Azevedo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,225 +482,225 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45091</v>
+        <v>45083</v>
       </c>
       <c r="G2" t="n">
-        <v>5206.94</v>
+        <v>8278.780000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>39037</v>
+        <v>52136</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paulo Teixeira</t>
+          <t>Bruna Nogueira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45087</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>3563.99</v>
+        <v>9086.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24888</v>
+        <v>34459</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isaac Pastor</t>
+          <t>Luiz Otávio Viana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45093</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>3990.64</v>
+        <v>7732.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>55087</v>
+        <v>32271</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Sales</t>
+          <t>Dr. Luigi Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45088</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>7950.31</v>
+        <v>8337.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73715</v>
+        <v>18371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Arthur Ferreira</t>
+          <t>José Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45104</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>4569.07</v>
+        <v>8528.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>78660</v>
+        <v>73685</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Gustavo Henrique Cavalcante</t>
+          <t>Allana Novaes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45093</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>5460.19</v>
+        <v>8730.290000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>46082</v>
+        <v>29781</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Olívia Carvalho</t>
+          <t>Zoe Leão</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>6326.42</v>
+        <v>3121.87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>51293</v>
+        <v>21456</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yan Teixeira</t>
+          <t>Théo Monteiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45095</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>3975.25</v>
+        <v>7673.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74886</v>
+        <v>41851</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hadassa Sales</t>
+          <t>Sr. José Miguel Machado</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -710,46 +710,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45084</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>4216.69</v>
+        <v>7038.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15649</v>
+        <v>13186</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Esther Costela</t>
+          <t>Arthur Alves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45082</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>3923.09</v>
+        <v>9724.780000000001</v>
       </c>
     </row>
   </sheetData>
